--- a/Outputs/1. Budget/Summary.xlsx
+++ b/Outputs/1. Budget/Summary.xlsx
@@ -8,23 +8,36 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailaub-my.sharepoint.com/personal/mo10_aub_edu_lb/Documents/3-Research/Elsa/Model 1/Github/microgrid_MP/Outputs/1. Budget/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_587488FD672C457730C1FB5F5566A6FEF362D481" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC235B87-F37A-4538-BEFD-F0879072F48E}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_98953EB45A105AB28957DAD19717C2A00D2B0A3A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F078E1C-DD3B-4A49-B89F-0347F9B863FB}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="100000" sheetId="1" r:id="rId1"/>
     <sheet name="250000" sheetId="2" r:id="rId2"/>
     <sheet name="400000" sheetId="3" r:id="rId3"/>
-    <sheet name="420000" sheetId="10" r:id="rId4"/>
-    <sheet name="750000" sheetId="4" r:id="rId5"/>
-    <sheet name="1000000" sheetId="5" r:id="rId6"/>
-    <sheet name="1250000" sheetId="6" r:id="rId7"/>
-    <sheet name="1500000" sheetId="7" r:id="rId8"/>
-    <sheet name="1750000" sheetId="8" r:id="rId9"/>
-    <sheet name="2000000" sheetId="9" r:id="rId10"/>
+    <sheet name="420000" sheetId="4" r:id="rId4"/>
+    <sheet name="750000" sheetId="5" r:id="rId5"/>
+    <sheet name="1000000" sheetId="6" r:id="rId6"/>
+    <sheet name="1250000" sheetId="7" r:id="rId7"/>
+    <sheet name="1500000" sheetId="8" r:id="rId8"/>
+    <sheet name="1750000" sheetId="9" r:id="rId9"/>
+    <sheet name="2000000" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -407,9 +420,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -534,7 +547,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -662,7 +675,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -766,31 +779,31 @@
         <v>0</v>
       </c>
       <c r="AI3">
-        <v>1.953125E-3</v>
+        <v>2.9296875E-3</v>
       </c>
       <c r="AJ3">
-        <v>1.757049560546875E-2</v>
+        <v>1.8543243408203122E-2</v>
       </c>
       <c r="AK3">
-        <v>3.507140651345253E-2</v>
+        <v>3.603987954556942E-2</v>
       </c>
       <c r="AL3">
-        <v>5.2495409121547709E-2</v>
+        <v>5.3459626168660179E-2</v>
       </c>
       <c r="AM3">
-        <v>7.1770333881696402E-2</v>
+        <v>7.0802821170848684E-2</v>
       </c>
       <c r="AN3">
-        <v>9.0951142798289683E-2</v>
+        <v>9.190690758057557E-2</v>
       </c>
       <c r="AO3">
-        <v>0.1100382954213449</v>
+        <v>0.1109893933834048</v>
       </c>
       <c r="AP3">
-        <v>0.13283103978411051</v>
+        <v>0.13282709942641791</v>
       </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -918,7 +931,7 @@
         <v>2256480.8169548772</v>
       </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1022,28 +1035,28 @@
         <v>2256480.8169548772</v>
       </c>
       <c r="AI5">
-        <v>2268313.0266815461</v>
+        <v>2261697.352903482</v>
       </c>
       <c r="AJ5">
-        <v>2266776.4736875789</v>
+        <v>2260409.1073123449</v>
       </c>
       <c r="AK5">
-        <v>2265120.9079113891</v>
+        <v>2259018.9471085598</v>
       </c>
       <c r="AL5">
-        <v>2266824.302072363</v>
+        <v>2260817.4450693009</v>
       </c>
       <c r="AM5">
-        <v>2259700.6561085251</v>
+        <v>2265351.8371103052</v>
       </c>
       <c r="AN5">
-        <v>2263643.8124472508</v>
+        <v>2258118.8879636228</v>
       </c>
       <c r="AO5">
-        <v>2270751.2345259972</v>
+        <v>2265439.2907599369</v>
       </c>
       <c r="AP5">
-        <v>2261268.1037706458</v>
+        <v>2261289.8186496738</v>
       </c>
     </row>
   </sheetData>
@@ -1052,14 +1065,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:AP5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -1184,7 +1197,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1312,7 +1325,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1398,16 +1411,16 @@
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>7.8125E-3</v>
+        <v>9.765625E-3</v>
       </c>
       <c r="AD3">
-        <v>3.12042236328125E-2</v>
+        <v>3.6068439483642578E-2</v>
       </c>
       <c r="AE3">
-        <v>6.6086217761039734E-2</v>
+        <v>6.703665480017662E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1502,7 +1515,7 @@
         <v>2256480.8169548772</v>
       </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1588,13 +1601,13 @@
         <v>2256480.8169548772</v>
       </c>
       <c r="AC5">
-        <v>2276451.0753164748</v>
+        <v>2263877.78197924</v>
       </c>
       <c r="AD5">
-        <v>2292113.168938641</v>
+        <v>2260799.6520116022</v>
       </c>
       <c r="AE5">
-        <v>2265351.3621795559</v>
+        <v>2261190.5850118911</v>
       </c>
     </row>
   </sheetData>
@@ -1608,9 +1621,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -1735,7 +1748,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1863,7 +1876,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1970,28 +1983,28 @@
         <v>4.4763732701539993E-2</v>
       </c>
       <c r="AJ3">
-        <v>6.4076409787958255E-2</v>
+        <v>6.5042043642279168E-2</v>
       </c>
       <c r="AK3">
-        <v>8.7138462074356937E-2</v>
+        <v>8.8098437917812689E-2</v>
       </c>
       <c r="AL3">
-        <v>0.11006538514814</v>
+        <v>0.11101973613313799</v>
       </c>
       <c r="AM3">
-        <v>0.13285797078203759</v>
+        <v>0.13380672986673289</v>
       </c>
       <c r="AN3">
-        <v>0.1555170061094866</v>
+        <v>0.1583479957416023</v>
       </c>
       <c r="AO3">
-        <v>0.1855520294992562</v>
+        <v>0.18460928873946239</v>
       </c>
       <c r="AP3">
-        <v>0.21535240426879329</v>
+        <v>0.21441702867118539</v>
       </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2119,7 +2132,7 @@
         <v>2256480.8169548772</v>
       </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -2226,25 +2239,25 @@
         <v>2256536.5598674002</v>
       </c>
       <c r="AJ5">
-        <v>2267467.0920228399</v>
+        <v>2261245.4446243159</v>
       </c>
       <c r="AK5">
-        <v>2265853.2329567112</v>
+        <v>2259791.7905128882</v>
       </c>
       <c r="AL5">
-        <v>2267881.928269051</v>
+        <v>2261891.3651269171</v>
       </c>
       <c r="AM5">
-        <v>2271606.7357480088</v>
+        <v>2265717.588892105</v>
       </c>
       <c r="AN5">
-        <v>2281626.604997477</v>
+        <v>2264810.6149272779</v>
       </c>
       <c r="AO5">
-        <v>2260579.2779439539</v>
+        <v>2265715.0812847591</v>
       </c>
       <c r="AP5">
-        <v>2258432.6180371209</v>
+        <v>2262621.6985464622</v>
       </c>
     </row>
   </sheetData>
@@ -2254,13 +2267,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AP5"/>
+  <dimension ref="A1:AP7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:AM7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -2385,7 +2400,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2513,7 +2528,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2611,28 +2626,28 @@
         <v>2.1467208862304691E-2</v>
       </c>
       <c r="AG3">
-        <v>3.8950995542109013E-2</v>
+        <v>3.9922317024320357E-2</v>
       </c>
       <c r="AH3">
-        <v>5.8292055134188558E-2</v>
+        <v>5.8291817995154822E-2</v>
       </c>
       <c r="AI3">
-        <v>7.7538675958728653E-2</v>
+        <v>7.9463102175844902E-2</v>
       </c>
       <c r="AJ3">
-        <v>0.100521847779283</v>
+        <v>0.10052067340439259</v>
       </c>
       <c r="AK3">
-        <v>0.1233703525774513</v>
+        <v>0.12336918508366369</v>
       </c>
       <c r="AL3">
-        <v>0.14608497941781781</v>
+        <v>0.14986959104500591</v>
       </c>
       <c r="AM3">
-        <v>0.17995727940340331</v>
+        <v>0.17994873486496671</v>
       </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2751,7 +2766,7 @@
         <v>2256480.8169548772</v>
       </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -2849,25 +2864,179 @@
         <v>2263221.4713968229</v>
       </c>
       <c r="AG5">
-        <v>2267592.3290279922</v>
+        <v>2260580.3303053482</v>
       </c>
       <c r="AH5">
-        <v>2262595.2932048431</v>
+        <v>2262596.8557085032</v>
       </c>
       <c r="AI5">
-        <v>2274050.0569788148</v>
+        <v>2261503.7207731232</v>
       </c>
       <c r="AJ5">
-        <v>2263267.1690222598</v>
+        <v>2263274.7452264261</v>
       </c>
       <c r="AK5">
-        <v>2259034.6942773862</v>
+        <v>2259041.590399886</v>
       </c>
       <c r="AL5">
-        <v>2285115.3836484868</v>
+        <v>2266061.3283913848</v>
       </c>
       <c r="AM5">
-        <v>2263846.2688025739</v>
+        <v>2263886.74107402</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <f>B5-B4</f>
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ref="C7:AM7" si="0">C5-C4</f>
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <f t="shared" si="0"/>
+        <v>2926.905095751863</v>
+      </c>
+      <c r="AF7">
+        <f t="shared" si="0"/>
+        <v>6740.6544419457205</v>
+      </c>
+      <c r="AG7">
+        <f t="shared" si="0"/>
+        <v>4099.5133504709229</v>
+      </c>
+      <c r="AH7">
+        <f t="shared" si="0"/>
+        <v>6116.0387536259368</v>
+      </c>
+      <c r="AI7">
+        <f t="shared" si="0"/>
+        <v>5022.9038182459772</v>
+      </c>
+      <c r="AJ7">
+        <f t="shared" si="0"/>
+        <v>6793.9282715488225</v>
+      </c>
+      <c r="AK7">
+        <f t="shared" si="0"/>
+        <v>2560.7734450087883</v>
+      </c>
+      <c r="AL7">
+        <f t="shared" si="0"/>
+        <v>9580.5114365075715</v>
+      </c>
+      <c r="AM7">
+        <f t="shared" si="0"/>
+        <v>7405.9241191428155</v>
       </c>
     </row>
   </sheetData>
@@ -2876,16 +3045,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A43BD36-407F-461F-910E-81F72AD0CA6E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AP5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -3010,7 +3177,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3138,7 +3305,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -3236,28 +3403,28 @@
         <v>2.5356292724609378E-2</v>
       </c>
       <c r="AG3">
-        <v>4.2822988703846931E-2</v>
+        <v>4.3793360702693462E-2</v>
       </c>
       <c r="AH3">
-        <v>6.2145142079316429E-2</v>
+        <v>6.3110775933637342E-2</v>
       </c>
       <c r="AI3">
-        <v>8.1372949002757267E-2</v>
+        <v>8.4256177039462532E-2</v>
       </c>
       <c r="AJ3">
-        <v>0.1043336543796942</v>
+        <v>0.105288004213567</v>
       </c>
       <c r="AK3">
-        <v>0.12715982437356321</v>
+        <v>0.12810858231387809</v>
       </c>
       <c r="AL3">
-        <v>0.15741638824564469</v>
+        <v>0.15646716203325889</v>
       </c>
       <c r="AM3">
-        <v>0.19118909577082949</v>
+        <v>0.19024821236695089</v>
       </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -3376,7 +3543,7 @@
         <v>2256480.8169548772</v>
       </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -3474,25 +3641,25 @@
         <v>2263410.0229341341</v>
       </c>
       <c r="AG5">
-        <v>2269532.8197910138</v>
+        <v>2262512.3120905301</v>
       </c>
       <c r="AH5">
-        <v>2268486.5009831721</v>
+        <v>2262117.9238569252</v>
       </c>
       <c r="AI5">
-        <v>2279970.6451542331</v>
+        <v>2261198.758918894</v>
       </c>
       <c r="AJ5">
-        <v>2268773.6737927962</v>
+        <v>2262597.3721818328</v>
       </c>
       <c r="AK5">
-        <v>2265742.5971043939</v>
+        <v>2260134.6633422491</v>
       </c>
       <c r="AL5">
-        <v>2260264.3896739511</v>
+        <v>2264949.974367708</v>
       </c>
       <c r="AM5">
-        <v>2258905.013781867</v>
+        <v>2261924.80115481</v>
       </c>
     </row>
   </sheetData>
@@ -3501,14 +3668,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AP5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -3633,7 +3800,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3761,7 +3928,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -3853,22 +4020,22 @@
         <v>1.5625E-2</v>
       </c>
       <c r="AE3">
-        <v>3.50799560546875E-2</v>
+        <v>3.7998199462890618E-2</v>
       </c>
       <c r="AF3">
-        <v>5.8311909437179572E-2</v>
+        <v>6.121305376291275E-2</v>
       </c>
       <c r="AG3">
-        <v>8.1407738092821091E-2</v>
+        <v>8.4291883526020683E-2</v>
       </c>
       <c r="AH3">
-        <v>0.1196752406505084</v>
+        <v>0.11870728689346779</v>
       </c>
       <c r="AI3">
-        <v>0.17272655571973969</v>
+        <v>0.17177183570547111</v>
       </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -3975,7 +4142,7 @@
         <v>2256480.8169548772</v>
       </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -4067,19 +4234,19 @@
         <v>2256804.657723682</v>
       </c>
       <c r="AE5">
-        <v>2282250.1235297159</v>
+        <v>2262783.5144918212</v>
       </c>
       <c r="AF5">
-        <v>2282707.8320649378</v>
+        <v>2263355.2851893748</v>
       </c>
       <c r="AG5">
-        <v>2284693.217581803</v>
+        <v>2265654.0468378412</v>
       </c>
       <c r="AH5">
-        <v>2261308.0937362611</v>
+        <v>2264729.0884448909</v>
       </c>
       <c r="AI5">
-        <v>2262102.971927241</v>
+        <v>2264176.3610773031</v>
       </c>
     </row>
   </sheetData>
@@ -4088,14 +4255,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AP5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -4220,7 +4387,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4348,7 +4515,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -4434,22 +4601,22 @@
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>3.90625E-3</v>
+        <v>4.8828125E-3</v>
       </c>
       <c r="AD3">
-        <v>2.732086181640625E-2</v>
+        <v>3.02424430847168E-2</v>
       </c>
       <c r="AE3">
-        <v>5.0598278641700738E-2</v>
+        <v>5.6410278542898602E-2</v>
       </c>
       <c r="AF3">
-        <v>8.338139839906944E-2</v>
+        <v>8.3368411404421749E-2</v>
       </c>
       <c r="AG3">
-        <v>0.13692891834283219</v>
+        <v>0.13691610890475189</v>
       </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -4550,7 +4717,7 @@
         <v>2256480.8169548772</v>
       </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -4636,19 +4803,19 @@
         <v>2256480.8169548772</v>
       </c>
       <c r="AC5">
-        <v>2268678.69991084</v>
+        <v>2262155.0696859402</v>
       </c>
       <c r="AD5">
-        <v>2280164.1839731168</v>
+        <v>2261586.166418165</v>
       </c>
       <c r="AE5">
-        <v>2298392.5489724609</v>
+        <v>2261434.6736721881</v>
       </c>
       <c r="AF5">
-        <v>2265770.4513602462</v>
+        <v>2265837.2719966699</v>
       </c>
       <c r="AG5">
-        <v>2257797.3025019499</v>
+        <v>2257822.3151026028</v>
       </c>
     </row>
   </sheetData>
@@ -4657,14 +4824,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AP5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -4789,7 +4956,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4917,7 +5084,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -5003,19 +5170,19 @@
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>7.8125E-3</v>
+        <v>9.765625E-3</v>
       </c>
       <c r="AD3">
-        <v>3.12042236328125E-2</v>
+        <v>3.6068439483642578E-2</v>
       </c>
       <c r="AE3">
-        <v>6.6086217761039734E-2</v>
+        <v>6.703665480017662E-2</v>
       </c>
       <c r="AF3">
-        <v>0.10450334454071709</v>
+        <v>0.10928528448494031</v>
       </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -5113,7 +5280,7 @@
         <v>2256480.8169548772</v>
       </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -5199,16 +5366,16 @@
         <v>2256480.8169548772</v>
       </c>
       <c r="AC5">
-        <v>2276451.0753164748</v>
+        <v>2263877.78197924</v>
       </c>
       <c r="AD5">
-        <v>2292113.168938641</v>
+        <v>2260799.6520116031</v>
       </c>
       <c r="AE5">
-        <v>2262378.585261805</v>
+        <v>2258032.7514462629</v>
       </c>
       <c r="AF5">
-        <v>2272584.436521105</v>
+        <v>2260900.12197799</v>
       </c>
     </row>
   </sheetData>
@@ -5217,14 +5384,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AP5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -5349,7 +5516,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -5477,7 +5644,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -5563,19 +5730,19 @@
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>7.8125E-3</v>
+        <v>9.765625E-3</v>
       </c>
       <c r="AD3">
-        <v>3.12042236328125E-2</v>
+        <v>3.6068439483642578E-2</v>
       </c>
       <c r="AE3">
-        <v>6.6086217761039734E-2</v>
+        <v>6.703665480017662E-2</v>
       </c>
       <c r="AF3">
-        <v>0.21975472487974909</v>
+        <v>0.22066803547204469</v>
       </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -5673,7 +5840,7 @@
         <v>2256480.8169548772</v>
       </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -5759,16 +5926,16 @@
         <v>2256480.8169548772</v>
       </c>
       <c r="AC5">
-        <v>2276451.0753164771</v>
+        <v>2263877.78197924</v>
       </c>
       <c r="AD5">
-        <v>2292113.168938641</v>
+        <v>2260799.6520116022</v>
       </c>
       <c r="AE5">
-        <v>2265351.362179555</v>
+        <v>2261190.5850118902</v>
       </c>
       <c r="AF5">
-        <v>2262377.8409374198</v>
+        <v>2261833.6858855141</v>
       </c>
     </row>
   </sheetData>
@@ -5777,14 +5944,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AP5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -5909,7 +6076,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -6037,7 +6204,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -6123,16 +6290,16 @@
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>7.8125E-3</v>
+        <v>9.765625E-3</v>
       </c>
       <c r="AD3">
-        <v>3.12042236328125E-2</v>
+        <v>3.6068439483642578E-2</v>
       </c>
       <c r="AE3">
-        <v>6.6086217761039734E-2</v>
+        <v>6.703665480017662E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -6227,7 +6394,7 @@
         <v>2256480.8169548772</v>
       </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -6313,13 +6480,13 @@
         <v>2256480.8169548772</v>
       </c>
       <c r="AC5">
-        <v>2276451.0753164762</v>
+        <v>2263877.78197924</v>
       </c>
       <c r="AD5">
-        <v>2292113.16893864</v>
+        <v>2260799.6520116031</v>
       </c>
       <c r="AE5">
-        <v>2265351.3621795559</v>
+        <v>2261190.5850118911</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Summary.xlsx
+++ b/Outputs/1. Budget/Summary.xlsx
@@ -1066,25 +1066,25 @@
         <v>2261647.510225542</v>
       </c>
       <c r="AJ5" t="n">
-        <v>2259840.463040016</v>
+        <v>2260310.644022134</v>
       </c>
       <c r="AK5" t="n">
-        <v>2258794.183066716</v>
+        <v>2258914.447634595</v>
       </c>
       <c r="AL5" t="n">
         <v>2260720.263737442</v>
       </c>
       <c r="AM5" t="n">
-        <v>2265272.025456854</v>
+        <v>2265349.556739661</v>
       </c>
       <c r="AN5" t="n">
-        <v>2258091.903070303</v>
+        <v>2258118.887963622</v>
       </c>
       <c r="AO5" t="n">
-        <v>2265337.956913977</v>
+        <v>2265438.776478827</v>
       </c>
       <c r="AP5" t="n">
-        <v>2261287.559879798</v>
+        <v>2261289.437566162</v>
       </c>
     </row>
   </sheetData>
@@ -1665,13 +1665,13 @@
         <v>2256480.816954877</v>
       </c>
       <c r="AC5" t="n">
-        <v>2262348.836919785</v>
+        <v>2262348.836919786</v>
       </c>
       <c r="AD5" t="n">
         <v>2265542.005362299</v>
       </c>
       <c r="AE5" t="n">
-        <v>2263484.244589912</v>
+        <v>2263484.244589913</v>
       </c>
       <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="inlineStr"/>
@@ -2062,31 +2062,31 @@
         <v>0.0078125</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.02438163757324219</v>
+        <v>0.02535629272460938</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.04379383660852909</v>
+        <v>0.04379336070269346</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.0650429908064325</v>
+        <v>0.06504251745673173</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.08809937953217606</v>
+        <v>0.08809890895600869</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.1110206722302297</v>
+        <v>0.1110202044113446</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.1338076604788807</v>
+        <v>0.1338071954011218</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.1583489204465441</v>
+        <v>0.158348458320939</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.184610207123179</v>
+        <v>0.1846097481566357</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.2144179398800292</v>
+        <v>0.214417484499162</v>
       </c>
     </row>
     <row r="4">
@@ -2319,34 +2319,34 @@
         <v>2256480.816954877</v>
       </c>
       <c r="AG5" t="n">
-        <v>2260054.14350816</v>
+        <v>2263689.763882981</v>
       </c>
       <c r="AH5" t="n">
-        <v>2262123.910622255</v>
+        <v>2257788.549584017</v>
       </c>
       <c r="AI5" t="n">
-        <v>2263262.244715774</v>
+        <v>2263265.588301045</v>
       </c>
       <c r="AJ5" t="n">
-        <v>2259943.003074106</v>
+        <v>2261045.159875146</v>
       </c>
       <c r="AK5" t="n">
-        <v>2259574.772520304</v>
+        <v>2259577.754523234</v>
       </c>
       <c r="AL5" t="n">
-        <v>2261316.866749092</v>
+        <v>2261684.028275278</v>
       </c>
       <c r="AM5" t="n">
-        <v>2262762.861002697</v>
+        <v>2265513.898384599</v>
       </c>
       <c r="AN5" t="n">
-        <v>2264125.914945541</v>
+        <v>2264618.372111822</v>
       </c>
       <c r="AO5" t="n">
-        <v>2265306.374224454</v>
+        <v>2265622.090762336</v>
       </c>
       <c r="AP5" t="n">
-        <v>2260813.231366632</v>
+        <v>2262444.600101818</v>
       </c>
     </row>
   </sheetData>
@@ -2723,28 +2723,28 @@
         <v>0.02146720886230469</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.03895099554210901</v>
+        <v>0.03992231702432036</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.05829205513418856</v>
+        <v>0.05829181799515482</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.07946333804118266</v>
+        <v>0.0794631021758449</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.09860658346090345</v>
+        <v>0.1005206734043926</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.122418799138022</v>
+        <v>0.1233691850836637</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.1508190520740228</v>
+        <v>0.1498695910450059</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.1808907782296945</v>
+        <v>0.1799487348649667</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.2405643598198555</v>
+        <v>0.2993253369004365</v>
       </c>
     </row>
     <row r="4">
@@ -2971,28 +2971,28 @@
         <v>2262545.852027718</v>
       </c>
       <c r="AG5" t="n">
-        <v>2265528.231350533</v>
+        <v>2259904.710936245</v>
       </c>
       <c r="AH5" t="n">
-        <v>2261437.583604611</v>
+        <v>2261829.857408758</v>
       </c>
       <c r="AI5" t="n">
-        <v>2259464.49644545</v>
+        <v>2260726.196504932</v>
       </c>
       <c r="AJ5" t="n">
-        <v>2265519.926936969</v>
+        <v>2262502.1075176</v>
       </c>
       <c r="AK5" t="n">
-        <v>2261659.252251693</v>
+        <v>2258416.556412141</v>
       </c>
       <c r="AL5" t="n">
-        <v>2259930.887830132</v>
+        <v>2265528.609096145</v>
       </c>
       <c r="AM5" t="n">
-        <v>2258224.62848063</v>
+        <v>2263361.757244324</v>
       </c>
       <c r="AN5" t="n">
-        <v>2257550.539051293</v>
+        <v>2256640.797842961</v>
       </c>
     </row>
   </sheetData>
@@ -3378,16 +3378,16 @@
         <v>0.08425617703946253</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.103376019925012</v>
+        <v>0.105288004213567</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.1281104494860349</v>
+        <v>0.1281085823138781</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.1564690155298384</v>
+        <v>0.1564671620332589</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.1902500495730332</v>
+        <v>0.1902482123669509</v>
       </c>
     </row>
     <row r="4">
@@ -3605,31 +3605,31 @@
         <v>2256480.816954877</v>
       </c>
       <c r="AE5" t="n">
-        <v>2257124.788940449</v>
+        <v>2257124.78894045</v>
       </c>
       <c r="AF5" t="n">
-        <v>2262689.801468014</v>
+        <v>2262689.801468015</v>
       </c>
       <c r="AG5" t="n">
-        <v>2260760.666307389</v>
+        <v>2261792.090624412</v>
       </c>
       <c r="AH5" t="n">
-        <v>2261111.385504803</v>
+        <v>2261285.303342829</v>
       </c>
       <c r="AI5" t="n">
-        <v>2259743.966249782</v>
+        <v>2260350.54291209</v>
       </c>
       <c r="AJ5" t="n">
-        <v>2263948.004447075</v>
+        <v>2261749.50962124</v>
       </c>
       <c r="AK5" t="n">
-        <v>2259017.936049382</v>
+        <v>2259325.557681079</v>
       </c>
       <c r="AL5" t="n">
-        <v>2262787.403884107</v>
+        <v>2264372.952017438</v>
       </c>
       <c r="AM5" t="n">
-        <v>2260357.659163364</v>
+        <v>2261290.355891083</v>
       </c>
     </row>
   </sheetData>
@@ -4221,25 +4221,25 @@
         <v>2256480.816954877</v>
       </c>
       <c r="AD5" t="n">
-        <v>2261591.362958462</v>
+        <v>2261799.834535616</v>
       </c>
       <c r="AE5" t="n">
-        <v>2261206.441535292</v>
+        <v>2261206.441535291</v>
       </c>
       <c r="AF5" t="n">
-        <v>2261584.285697573</v>
+        <v>2261778.286783278</v>
       </c>
       <c r="AG5" t="n">
         <v>2264153.813843052</v>
       </c>
       <c r="AH5" t="n">
-        <v>2263293.171126991</v>
+        <v>2263299.42173777</v>
       </c>
       <c r="AI5" t="n">
-        <v>2262424.240317481</v>
+        <v>2262424.24031748</v>
       </c>
       <c r="AJ5" t="n">
-        <v>2258389.28661892</v>
+        <v>2258932.819007996</v>
       </c>
     </row>
   </sheetData>
@@ -4604,19 +4604,19 @@
         <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.00390625</v>
+        <v>0.0048828125</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.02927207946777344</v>
+        <v>0.0302424430847168</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.05641572736203671</v>
+        <v>0.05544109945185483</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.08337382297577278</v>
+        <v>0.08433191171172894</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.1330966162387757</v>
+        <v>0.1340425417388261</v>
       </c>
     </row>
     <row r="4">
@@ -4810,19 +4810,19 @@
         <v>2256480.816954877</v>
       </c>
       <c r="AC5" t="n">
-        <v>2264476.952534197</v>
+        <v>2260628.335050062</v>
       </c>
       <c r="AD5" t="n">
-        <v>2266071.38425049</v>
+        <v>2259900.947540139</v>
       </c>
       <c r="AE5" t="n">
-        <v>2259714.806345837</v>
+        <v>2265912.35923314</v>
       </c>
       <c r="AF5" t="n">
-        <v>2263756.627885703</v>
+        <v>2258834.31160768</v>
       </c>
       <c r="AG5" t="n">
-        <v>2260286.084268268</v>
+        <v>2261416.095936685</v>
       </c>
     </row>
   </sheetData>
@@ -5387,13 +5387,13 @@
         <v>2256480.816954877</v>
       </c>
       <c r="AC5" t="n">
-        <v>2262348.836919785</v>
+        <v>2262348.836919786</v>
       </c>
       <c r="AD5" t="n">
         <v>2265542.005362299</v>
       </c>
       <c r="AE5" t="n">
-        <v>2260553.272759177</v>
+        <v>2260553.272759176</v>
       </c>
       <c r="AF5" t="n">
         <v>2260170.311210751</v>
@@ -5961,13 +5961,13 @@
         <v>2256480.816954877</v>
       </c>
       <c r="AC5" t="n">
-        <v>2262348.836919786</v>
+        <v>2262348.836919785</v>
       </c>
       <c r="AD5" t="n">
-        <v>2265542.005362297</v>
+        <v>2265542.005362299</v>
       </c>
       <c r="AE5" t="n">
-        <v>2263484.244589914</v>
+        <v>2263484.244589913</v>
       </c>
       <c r="AF5" t="n">
         <v>2260038.473262077</v>
@@ -6529,7 +6529,7 @@
         <v>2256480.816954877</v>
       </c>
       <c r="AC5" t="n">
-        <v>2262348.836919785</v>
+        <v>2262348.836919786</v>
       </c>
       <c r="AD5" t="n">
         <v>2265542.005362299</v>
